--- a/lab_schinkeev/data_lab3.xlsx
+++ b/lab_schinkeev/data_lab3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijdzeban/Documents/GitHub/python_solution/lab_schinkeev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arseny\Documents\GitHub\python_solution\lab_schinkeev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA4E620-C196-024C-BE1A-4CF9F112C7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB5B235-5F91-4C89-ABCC-E4492092D06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1240" windowWidth="27840" windowHeight="16660" xr2:uid="{9F548E80-043D-D94C-9756-D0132375D8E1}"/>
+    <workbookView xWindow="2895" yWindow="1680" windowWidth="21750" windowHeight="13800" xr2:uid="{9F548E80-043D-D94C-9756-D0132375D8E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -442,13 +432,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16504A0-D7FF-9E47-9853-21C07568E774}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>204.2</v>
       </c>
@@ -518,7 +508,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>209.6</v>
       </c>
@@ -553,7 +543,7 @@
         <v>18.39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>222.6</v>
       </c>
@@ -588,7 +578,7 @@
         <v>26.46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>236.7</v>
       </c>
@@ -623,7 +613,7 @@
         <v>22.37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>62</v>
       </c>
@@ -658,7 +648,7 @@
         <v>28.13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>53.1</v>
       </c>
@@ -693,7 +683,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>172.1</v>
       </c>
@@ -728,7 +718,7 @@
         <v>21.92</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>56.5</v>
       </c>
@@ -763,7 +753,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>52.6</v>
       </c>
@@ -798,7 +788,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46.6</v>
       </c>
@@ -833,7 +823,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>53.2</v>
       </c>
@@ -868,7 +858,7 @@
         <v>25.68</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>30.1</v>
       </c>
@@ -903,7 +893,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>146.4</v>
       </c>
@@ -938,7 +928,7 @@
         <v>25.74</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>18.100000000000001</v>
       </c>
@@ -973,7 +963,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13.6</v>
       </c>
@@ -1008,7 +998,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>89.8</v>
       </c>
@@ -1043,7 +1033,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>62.5</v>
       </c>
@@ -1078,7 +1068,7 @@
         <v>13.21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>46.3</v>
       </c>
@@ -1113,7 +1103,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>103.5</v>
       </c>
@@ -1148,7 +1138,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>73.3</v>
       </c>
@@ -1183,7 +1173,7 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>76.599999999999994</v>
       </c>
@@ -1218,7 +1208,7 @@
         <v>16.66</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>73.010000000000005</v>
       </c>
@@ -1253,7 +1243,7 @@
         <v>15.06</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>32.299999999999997</v>
       </c>
@@ -1288,7 +1278,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>199.6</v>
       </c>
@@ -1323,7 +1313,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>598.1</v>
       </c>
@@ -1358,7 +1348,7 @@
         <v>18.27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>71.2</v>
       </c>
@@ -1393,7 +1383,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>90.8</v>
       </c>
@@ -1428,7 +1418,7 @@
         <v>22.76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>82.1</v>
       </c>
@@ -1463,7 +1453,7 @@
         <v>15.41</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>76.2</v>
       </c>
@@ -1498,7 +1488,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>119.5</v>
       </c>
@@ -1533,7 +1523,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>21.9</v>
       </c>
@@ -1568,7 +1558,7 @@
         <v>30.53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>48.4</v>
       </c>
@@ -1603,7 +1593,7 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>173.5</v>
       </c>
@@ -1638,7 +1628,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>74.099999999999994</v>
       </c>
@@ -1673,7 +1663,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>68.599999999999994</v>
       </c>
@@ -1708,7 +1698,7 @@
         <v>26.05</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>60.8</v>
       </c>
@@ -1743,7 +1733,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>355.6</v>
       </c>
@@ -1778,7 +1768,7 @@
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>264.8</v>
       </c>
@@ -1813,7 +1803,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>526.6</v>
       </c>
@@ -1848,7 +1838,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>118.6</v>
       </c>
@@ -1883,7 +1873,7 @@
         <v>16.87</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>37.1</v>
       </c>
@@ -1918,7 +1908,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>57.7</v>
       </c>
@@ -1953,7 +1943,7 @@
         <v>22.17</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>51.6</v>
       </c>
@@ -1988,7 +1978,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>64.7</v>
       </c>
@@ -2023,7 +2013,7 @@
         <v>26.44</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>48.3</v>
       </c>
@@ -2058,7 +2048,7 @@
         <v>22.26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>15</v>
       </c>
@@ -2093,7 +2083,7 @@
         <v>19.13</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>87.5</v>
       </c>
@@ -2128,7 +2118,7 @@
         <v>18.28</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>108.4</v>
       </c>
@@ -2163,7 +2153,7 @@
         <v>28.23</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>267.3</v>
       </c>
@@ -2198,7 +2188,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>34.200000000000003</v>
       </c>
@@ -2233,7 +2223,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>26.8</v>
       </c>
@@ -2268,7 +2258,7 @@
         <v>8.6199999999999992</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43.6</v>
       </c>
@@ -2303,7 +2293,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>72</v>
       </c>
